--- a/Producto/Web/Casos de prueba/7.xlsx
+++ b/Producto/Web/Casos de prueba/7.xlsx
@@ -88,58 +88,58 @@
     <t>2</t>
   </si>
   <si>
-    <t>&lt;TipoPlaya1&gt; Es un tipo de playa cargado en la b ase de datos</t>
-  </si>
-  <si>
-    <t>&lt;TipoVehiculo1&gt; Es un tipo de vehiculo cargado en la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;DiaAtencion1&gt; Es un dia de atencion cargado en la base de datos.</t>
-  </si>
-  <si>
-    <t>Selecciono &lt;TipoPlaya1&gt; en el campo Tipo de Playa</t>
-  </si>
-  <si>
-    <t>Selecciono &lt;TipoVehiculo1&gt; en el campo Tipo de Vehiculo</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;Precio1&gt; en el campo precio desde</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;Precio2&gt; en el campo precio hasta</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;Hora1&gt; en el campo hora desde</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;Hora2&gt; en el campo hora hasta</t>
-  </si>
-  <si>
-    <t>Selecciono &lt;DiaAtencion1&gt; en el campo Dias de atencion</t>
-  </si>
-  <si>
     <t>Leonel Romero [autor]</t>
   </si>
   <si>
     <t>ingreso a la pagina principal.</t>
   </si>
   <si>
-    <t>Ingreso &lt;Ciudad1&gt; en el campo nombre de ciudad</t>
-  </si>
-  <si>
     <t>Presiono el boton buscar</t>
   </si>
   <si>
-    <t>Se carga la pagina BuscarPlayas, con todas las playas de &lt;Ciudad1&gt; disponibles en un mapa. Se carga la informacion de las playas en la grilla de playas debajo del mapa.</t>
-  </si>
-  <si>
-    <t>&lt;Ciudad1&gt; Es una ciudad cargada en la base de datos, y tiene playas de estacionamientos asociadas  las cuales aceptan tipo de vehiculo &lt;TipoVehiculo1&gt;, el precio para &lt;TipoVehiculo1&gt; esta en el rango &lt;Precio1&gt; - &lt;Precio2&gt;, atienden los dias &lt;DiaAtencion1&gt;, en el horario &lt;Hora1&gt; - &lt;Hora2&gt;</t>
-  </si>
-  <si>
     <t>Presiono el boton filtrar</t>
   </si>
   <si>
-    <t>Se muestran en el mapa las playas que ya se mostraban y cumplen con los filtros seleccionados</t>
+    <t>"Córdoba" Es una ciudad cargada en la base de datos, y tiene playas de estacionamientos asociadas. Algunas de las cuales aceptan tipo de vehiculo &lt;CPA_TipoVehiculo1&gt;, el precio para &lt;CPA_TipoVehiculo1&gt; esta en el rango 0 - 99, atienden los dias &lt;CPA_DiasDeAtencion1&gt;, en el horario 00:00 - 23:59</t>
+  </si>
+  <si>
+    <t>&lt;CPA_TipoPlaya1&gt; Es un tipo de playa cargado en la base de datos</t>
+  </si>
+  <si>
+    <t>&lt;CPA_TipoVehiculo1&gt; Es un tipo de vehiculo cargado en la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;CPA_DiasDeAtencion1&gt;  Es un dia de atencion cargado en la base de datos.</t>
+  </si>
+  <si>
+    <t>Ingreso "Córdoba" en el campo nombre de ciudad</t>
+  </si>
+  <si>
+    <t>Se carga la pagina BuscarPlayas, con todas las playas de "Córdoba" disponibles en un mapa. Se carga la informacion de las playas en la grilla de playas debajo del mapa.</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;CPA_TipoPlaya1&gt; en el campo Tipo de Playa</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;CPA_TipoVehiculo1&gt; en el campo Tipo de Vehiculo</t>
+  </si>
+  <si>
+    <t>Ingreso 0 en el campo precio desde</t>
+  </si>
+  <si>
+    <t>Ingreso 99 en el campo precio hasta</t>
+  </si>
+  <si>
+    <t>Ingreso 00:00 en el campo hora desde</t>
+  </si>
+  <si>
+    <t>Ingreso 23:59 en el campo hora hasta</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;CPA_DiasDeAtencion1&gt; en el campo Dias de atencion</t>
+  </si>
+  <si>
+    <t>Se muestran en el mapa las playas que cumplen con los filtros seleccionados</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -699,7 +699,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1">
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.25" thickBot="1">
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5">
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
@@ -845,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -864,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -882,16 +882,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="38.25">
+    <row r="12" spans="1:4" ht="25.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>40</v>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>18</v>

--- a/Producto/Web/Casos de prueba/7.xlsx
+++ b/Producto/Web/Casos de prueba/7.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="2"/>
@@ -12,12 +12,12 @@
     <sheet name="Pasos" sheetId="2" r:id="rId3"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Leonel Romero [autor]</t>
   </si>
   <si>
-    <t>ingreso a la pagina principal.</t>
-  </si>
-  <si>
-    <t>Presiono el boton buscar</t>
-  </si>
-  <si>
     <t>Presiono el boton filtrar</t>
   </si>
   <si>
@@ -112,41 +106,53 @@
     <t xml:space="preserve"> &lt;CPA_DiasDeAtencion1&gt;  Es un dia de atencion cargado en la base de datos.</t>
   </si>
   <si>
-    <t>Ingreso "Córdoba" en el campo nombre de ciudad</t>
-  </si>
-  <si>
-    <t>Se carga la pagina BuscarPlayas, con todas las playas de "Córdoba" disponibles en un mapa. Se carga la informacion de las playas en la grilla de playas debajo del mapa.</t>
-  </si>
-  <si>
-    <t>Selecciono &lt;CPA_TipoPlaya1&gt; en el campo Tipo de Playa</t>
-  </si>
-  <si>
-    <t>Selecciono &lt;CPA_TipoVehiculo1&gt; en el campo Tipo de Vehiculo</t>
-  </si>
-  <si>
-    <t>Ingreso 0 en el campo precio desde</t>
-  </si>
-  <si>
-    <t>Ingreso 99 en el campo precio hasta</t>
-  </si>
-  <si>
-    <t>Ingreso 00:00 en el campo hora desde</t>
-  </si>
-  <si>
-    <t>Ingreso 23:59 en el campo hora hasta</t>
-  </si>
-  <si>
-    <t>Selecciono &lt;CPA_DiasDeAtencion1&gt; en el campo Dias de atencion</t>
-  </si>
-  <si>
-    <t>Se muestran en el mapa las playas que cumplen con los filtros seleccionados</t>
+    <t>Se muestra un listado de ciudades que coinciden con &lt;Ciudad1&gt;</t>
+  </si>
+  <si>
+    <t>Seleccionar del listado la ciudad &lt;Ciudad1&gt;</t>
+  </si>
+  <si>
+    <t>Ingresar a la pagina principal.</t>
+  </si>
+  <si>
+    <t>Ingresar &lt;Ciudad1&gt; en el campo nombre de ciudad</t>
+  </si>
+  <si>
+    <t>Presionar el boton buscar</t>
+  </si>
+  <si>
+    <t>Se carga la pagina BusquedaPlayas, con todas las playas de que pertenecen a la ciudad &lt;Ciudad1&gt; disponibles en un mapa. Se carga la informacion de las playas en la grilla de playas.</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;TipoPlaya1&gt; en el campo Tipo de Playa</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;TipoVehiculo1&gt; en el campo Tipo de Vehiculo</t>
+  </si>
+  <si>
+    <t>Ingreso &lt;Precio1&gt; en el campo precio desde</t>
+  </si>
+  <si>
+    <t>Ingreso &lt;PrecioHasta&gt; en el campo precio hasta</t>
+  </si>
+  <si>
+    <t>Ingreso &lt;Horario1&gt; en el campo hora desde</t>
+  </si>
+  <si>
+    <t>Ingreso &lt;Horario2&gt; en el campo hora hasta</t>
+  </si>
+  <si>
+    <t>Selecciono &lt;DiasDeAtencion1&gt; en el campo Dias de atencion</t>
+  </si>
+  <si>
+    <t>Se muestran en el mapa solo las playas que cumplen con los filtros seleccionados]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -440,6 +447,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,20 +623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -636,7 +644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="26.25" thickBot="1">
+    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -644,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="51.75" thickBot="1">
+    <row r="3" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -652,7 +660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32.25" thickBot="1">
+    <row r="4" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -660,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -669,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -677,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -695,20 +703,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -719,36 +727,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" thickBot="1">
+    <row r="2" spans="1:3" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="25.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -760,21 +768,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -788,113 +796,123 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="51.75" thickBot="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1">
-      <c r="A5" s="7">
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="7">
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="7">
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1">
-      <c r="A11" s="7">
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="25.5">
-      <c r="A12" s="7">
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -906,14 +924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -921,7 +939,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -938,7 +956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25">
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
